--- a/data/output/FV2504_FV2410/UTILMD/44035.xlsx
+++ b/data/output/FV2504_FV2410/UTILMD/44035.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8330" uniqueCount="627">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8351" uniqueCount="627">
+  <si>
+    <t>Segmentname_FV2410</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2410</t>
+  </si>
+  <si>
+    <t>Segment_FV2410</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2410</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2410</t>
+  </si>
+  <si>
+    <t>Code_FV2410</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2410</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2410</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2504</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2504</t>
+  </si>
+  <si>
+    <t>Segment_FV2504</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2504</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2504</t>
+  </si>
+  <si>
+    <t>Code_FV2504</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2504</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2504</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2504</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2504</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -1992,6 +1992,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U372" totalsRowShown="0">
+  <autoFilter ref="A1:U372"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2410"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2410"/>
+    <tableColumn id="3" name="Segment_FV2410"/>
+    <tableColumn id="4" name="Datenelement_FV2410"/>
+    <tableColumn id="5" name="Segment ID_FV2410"/>
+    <tableColumn id="6" name="Code_FV2410"/>
+    <tableColumn id="7" name="Qualifier_FV2410"/>
+    <tableColumn id="8" name="Beschreibung_FV2410"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2410"/>
+    <tableColumn id="10" name="Bedingung_FV2410"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2504"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2504"/>
+    <tableColumn id="14" name="Segment_FV2504"/>
+    <tableColumn id="15" name="Datenelement_FV2504"/>
+    <tableColumn id="16" name="Segment ID_FV2504"/>
+    <tableColumn id="17" name="Code_FV2504"/>
+    <tableColumn id="18" name="Qualifier_FV2504"/>
+    <tableColumn id="19" name="Beschreibung_FV2504"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2504"/>
+    <tableColumn id="21" name="Bedingung_FV2504"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2281,7 +2311,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U372"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -20204,5 +20237,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2504_FV2410/UTILMD/44035.xlsx
+++ b/data/output/FV2504_FV2410/UTILMD/44035.xlsx
@@ -3500,7 +3500,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -3862,7 +3862,7 @@
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="2"/>
@@ -4008,7 +4008,7 @@
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="4"/>
-      <c r="M12" s="2" t="s">
+      <c r="M12" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N12" s="2"/>
@@ -4210,7 +4210,7 @@
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="4"/>
-      <c r="M16" s="2" t="s">
+      <c r="M16" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N16" s="2" t="s">
@@ -4514,7 +4514,7 @@
       </c>
       <c r="K22" s="2"/>
       <c r="L22" s="4"/>
-      <c r="M22" s="2" t="s">
+      <c r="M22" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N22" s="2" t="s">
@@ -4706,7 +4706,7 @@
       </c>
       <c r="K26" s="2"/>
       <c r="L26" s="4"/>
-      <c r="M26" s="2" t="s">
+      <c r="M26" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N26" s="2" t="s">
@@ -5076,7 +5076,7 @@
       </c>
       <c r="K33" s="2"/>
       <c r="L33" s="4"/>
-      <c r="M33" s="2" t="s">
+      <c r="M33" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N33" s="2" t="s">
@@ -5376,7 +5376,7 @@
       </c>
       <c r="K39" s="2"/>
       <c r="L39" s="4"/>
-      <c r="M39" s="2" t="s">
+      <c r="M39" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N39" s="2" t="s">
@@ -5570,7 +5570,7 @@
         <v>594</v>
       </c>
       <c r="L43" s="4"/>
-      <c r="M43" s="2" t="s">
+      <c r="M43" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N43" s="2" t="s">
@@ -5734,7 +5734,7 @@
       </c>
       <c r="K46" s="2"/>
       <c r="L46" s="4"/>
-      <c r="M46" s="2" t="s">
+      <c r="M46" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N46" s="2" t="s">
@@ -5886,7 +5886,7 @@
         <v>595</v>
       </c>
       <c r="L49" s="4"/>
-      <c r="M49" s="2" t="s">
+      <c r="M49" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N49" s="2" t="s">
@@ -6080,7 +6080,7 @@
       </c>
       <c r="K53" s="2"/>
       <c r="L53" s="4"/>
-      <c r="M53" s="2" t="s">
+      <c r="M53" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N53" s="2" t="s">
@@ -6280,7 +6280,7 @@
       </c>
       <c r="K57" s="2"/>
       <c r="L57" s="4"/>
-      <c r="M57" s="2" t="s">
+      <c r="M57" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N57" s="2" t="s">
@@ -6476,7 +6476,7 @@
       </c>
       <c r="K61" s="2"/>
       <c r="L61" s="4"/>
-      <c r="M61" s="2" t="s">
+      <c r="M61" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N61" s="2" t="s">
@@ -6686,7 +6686,7 @@
         <v>599</v>
       </c>
       <c r="L65" s="4"/>
-      <c r="M65" s="2" t="s">
+      <c r="M65" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N65" s="2" t="s">
@@ -6904,7 +6904,7 @@
       </c>
       <c r="K69" s="2"/>
       <c r="L69" s="4"/>
-      <c r="M69" s="2" t="s">
+      <c r="M69" s="3" t="s">
         <v>37</v>
       </c>
       <c r="N69" s="2" t="s">
@@ -7174,7 +7174,7 @@
       </c>
       <c r="K74" s="2"/>
       <c r="L74" s="4"/>
-      <c r="M74" s="2" t="s">
+      <c r="M74" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N74" s="2" t="s">
@@ -7390,7 +7390,7 @@
       </c>
       <c r="K78" s="2"/>
       <c r="L78" s="4"/>
-      <c r="M78" s="2" t="s">
+      <c r="M78" s="3" t="s">
         <v>39</v>
       </c>
       <c r="N78" s="2" t="s">
@@ -7526,7 +7526,7 @@
         <v>601</v>
       </c>
       <c r="L81" s="4"/>
-      <c r="M81" s="2" t="s">
+      <c r="M81" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N81" s="2" t="s">
@@ -7788,7 +7788,7 @@
         <v>603</v>
       </c>
       <c r="L86" s="4"/>
-      <c r="M86" s="2" t="s">
+      <c r="M86" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N86" s="2" t="s">
@@ -8048,7 +8048,7 @@
       </c>
       <c r="K91" s="2"/>
       <c r="L91" s="4"/>
-      <c r="M91" s="2" t="s">
+      <c r="M91" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N91" s="2" t="s">
@@ -8236,7 +8236,7 @@
       </c>
       <c r="K95" s="2"/>
       <c r="L95" s="4"/>
-      <c r="M95" s="2" t="s">
+      <c r="M95" s="3" t="s">
         <v>43</v>
       </c>
       <c r="N95" s="2" t="s">
@@ -8590,7 +8590,7 @@
       </c>
       <c r="K102" s="2"/>
       <c r="L102" s="4"/>
-      <c r="M102" s="2" t="s">
+      <c r="M102" s="3" t="s">
         <v>44</v>
       </c>
       <c r="N102" s="2" t="s">
@@ -8786,7 +8786,7 @@
       </c>
       <c r="K106" s="2"/>
       <c r="L106" s="4"/>
-      <c r="M106" s="2" t="s">
+      <c r="M106" s="3" t="s">
         <v>45</v>
       </c>
       <c r="N106" s="2" t="s">
@@ -8984,7 +8984,7 @@
         <v>599</v>
       </c>
       <c r="L110" s="4"/>
-      <c r="M110" s="2" t="s">
+      <c r="M110" s="3" t="s">
         <v>46</v>
       </c>
       <c r="N110" s="2" t="s">
@@ -9294,7 +9294,7 @@
       </c>
       <c r="K116" s="2"/>
       <c r="L116" s="4"/>
-      <c r="M116" s="2" t="s">
+      <c r="M116" s="3" t="s">
         <v>47</v>
       </c>
       <c r="N116" s="2" t="s">
@@ -9440,7 +9440,7 @@
       </c>
       <c r="K119" s="2"/>
       <c r="L119" s="4"/>
-      <c r="M119" s="2" t="s">
+      <c r="M119" s="3" t="s">
         <v>48</v>
       </c>
       <c r="N119" s="2" t="s">
@@ -9658,7 +9658,7 @@
         <v>605</v>
       </c>
       <c r="L123" s="4"/>
-      <c r="M123" s="2" t="s">
+      <c r="M123" s="3" t="s">
         <v>49</v>
       </c>
       <c r="N123" s="2" t="s">
@@ -9880,7 +9880,7 @@
       </c>
       <c r="K127" s="2"/>
       <c r="L127" s="4"/>
-      <c r="M127" s="2" t="s">
+      <c r="M127" s="3" t="s">
         <v>50</v>
       </c>
       <c r="N127" s="2" t="s">
@@ -10092,7 +10092,7 @@
       </c>
       <c r="K131" s="2"/>
       <c r="L131" s="4"/>
-      <c r="M131" s="2" t="s">
+      <c r="M131" s="3" t="s">
         <v>51</v>
       </c>
       <c r="N131" s="2" t="s">
@@ -10234,7 +10234,7 @@
       </c>
       <c r="K134" s="2"/>
       <c r="L134" s="4"/>
-      <c r="M134" s="2" t="s">
+      <c r="M134" s="3" t="s">
         <v>52</v>
       </c>
       <c r="N134" s="2" t="s">
@@ -10444,7 +10444,7 @@
         <v>608</v>
       </c>
       <c r="L138" s="4"/>
-      <c r="M138" s="2" t="s">
+      <c r="M138" s="3" t="s">
         <v>53</v>
       </c>
       <c r="N138" s="2" t="s">
@@ -10856,7 +10856,7 @@
         <v>609</v>
       </c>
       <c r="L146" s="4"/>
-      <c r="M146" s="2" t="s">
+      <c r="M146" s="3" t="s">
         <v>54</v>
       </c>
       <c r="N146" s="2" t="s">
@@ -10996,7 +10996,7 @@
       </c>
       <c r="K149" s="2"/>
       <c r="L149" s="4"/>
-      <c r="M149" s="2" t="s">
+      <c r="M149" s="3" t="s">
         <v>55</v>
       </c>
       <c r="N149" s="2" t="s">
@@ -11150,7 +11150,7 @@
       </c>
       <c r="K152" s="2"/>
       <c r="L152" s="4"/>
-      <c r="M152" s="2" t="s">
+      <c r="M152" s="3" t="s">
         <v>56</v>
       </c>
       <c r="N152" s="2" t="s">
@@ -11296,7 +11296,7 @@
       </c>
       <c r="K155" s="2"/>
       <c r="L155" s="4"/>
-      <c r="M155" s="2" t="s">
+      <c r="M155" s="3" t="s">
         <v>57</v>
       </c>
       <c r="N155" s="2" t="s">
@@ -11836,7 +11836,7 @@
       </c>
       <c r="K165" s="2"/>
       <c r="L165" s="4"/>
-      <c r="M165" s="2" t="s">
+      <c r="M165" s="3" t="s">
         <v>58</v>
       </c>
       <c r="N165" s="2" t="s">
@@ -12230,7 +12230,7 @@
         <v>613</v>
       </c>
       <c r="L173" s="4"/>
-      <c r="M173" s="2" t="s">
+      <c r="M173" s="3" t="s">
         <v>59</v>
       </c>
       <c r="N173" s="2" t="s">
@@ -12370,7 +12370,7 @@
       </c>
       <c r="K176" s="2"/>
       <c r="L176" s="4"/>
-      <c r="M176" s="2" t="s">
+      <c r="M176" s="3" t="s">
         <v>60</v>
       </c>
       <c r="N176" s="2" t="s">
@@ -12528,7 +12528,7 @@
       </c>
       <c r="K179" s="2"/>
       <c r="L179" s="4"/>
-      <c r="M179" s="2" t="s">
+      <c r="M179" s="3" t="s">
         <v>61</v>
       </c>
       <c r="N179" s="2" t="s">
@@ -12674,7 +12674,7 @@
       </c>
       <c r="K182" s="2"/>
       <c r="L182" s="4"/>
-      <c r="M182" s="2" t="s">
+      <c r="M182" s="3" t="s">
         <v>62</v>
       </c>
       <c r="N182" s="2" t="s">
@@ -12944,7 +12944,7 @@
       </c>
       <c r="K187" s="2"/>
       <c r="L187" s="4"/>
-      <c r="M187" s="2" t="s">
+      <c r="M187" s="3" t="s">
         <v>63</v>
       </c>
       <c r="N187" s="2" t="s">
@@ -13098,7 +13098,7 @@
       </c>
       <c r="K190" s="2"/>
       <c r="L190" s="4"/>
-      <c r="M190" s="2" t="s">
+      <c r="M190" s="3" t="s">
         <v>64</v>
       </c>
       <c r="N190" s="2" t="s">
@@ -13400,7 +13400,7 @@
         <v>615</v>
       </c>
       <c r="L196" s="4"/>
-      <c r="M196" s="2" t="s">
+      <c r="M196" s="3" t="s">
         <v>65</v>
       </c>
       <c r="N196" s="2" t="s">
@@ -13540,7 +13540,7 @@
       </c>
       <c r="K199" s="2"/>
       <c r="L199" s="4"/>
-      <c r="M199" s="2" t="s">
+      <c r="M199" s="3" t="s">
         <v>66</v>
       </c>
       <c r="N199" s="2" t="s">
@@ -13698,7 +13698,7 @@
       </c>
       <c r="K202" s="2"/>
       <c r="L202" s="4"/>
-      <c r="M202" s="2" t="s">
+      <c r="M202" s="3" t="s">
         <v>67</v>
       </c>
       <c r="N202" s="2" t="s">
@@ -14326,7 +14326,7 @@
       </c>
       <c r="K214" s="2"/>
       <c r="L214" s="4"/>
-      <c r="M214" s="2" t="s">
+      <c r="M214" s="3" t="s">
         <v>68</v>
       </c>
       <c r="N214" s="2" t="s">
@@ -15510,7 +15510,7 @@
       </c>
       <c r="K236" s="2"/>
       <c r="L236" s="4"/>
-      <c r="M236" s="2" t="s">
+      <c r="M236" s="3" t="s">
         <v>69</v>
       </c>
       <c r="N236" s="2" t="s">
@@ -15664,7 +15664,7 @@
       </c>
       <c r="K239" s="2"/>
       <c r="L239" s="4"/>
-      <c r="M239" s="2" t="s">
+      <c r="M239" s="3" t="s">
         <v>70</v>
       </c>
       <c r="N239" s="2" t="s">
@@ -15966,7 +15966,7 @@
         <v>616</v>
       </c>
       <c r="L245" s="4"/>
-      <c r="M245" s="2" t="s">
+      <c r="M245" s="3" t="s">
         <v>71</v>
       </c>
       <c r="N245" s="2" t="s">
@@ -16110,7 +16110,7 @@
       </c>
       <c r="K248" s="2"/>
       <c r="L248" s="4"/>
-      <c r="M248" s="2" t="s">
+      <c r="M248" s="3" t="s">
         <v>66</v>
       </c>
       <c r="N248" s="2" t="s">
@@ -16268,7 +16268,7 @@
       </c>
       <c r="K251" s="2"/>
       <c r="L251" s="4"/>
-      <c r="M251" s="2" t="s">
+      <c r="M251" s="3" t="s">
         <v>72</v>
       </c>
       <c r="N251" s="2" t="s">
@@ -16414,7 +16414,7 @@
       </c>
       <c r="K254" s="2"/>
       <c r="L254" s="4"/>
-      <c r="M254" s="2" t="s">
+      <c r="M254" s="3" t="s">
         <v>69</v>
       </c>
       <c r="N254" s="2" t="s">
@@ -16570,7 +16570,7 @@
         <v>616</v>
       </c>
       <c r="L257" s="4"/>
-      <c r="M257" s="2" t="s">
+      <c r="M257" s="3" t="s">
         <v>73</v>
       </c>
       <c r="N257" s="2" t="s">
@@ -16710,7 +16710,7 @@
       </c>
       <c r="K260" s="2"/>
       <c r="L260" s="4"/>
-      <c r="M260" s="2" t="s">
+      <c r="M260" s="3" t="s">
         <v>74</v>
       </c>
       <c r="N260" s="2" t="s">
@@ -16864,7 +16864,7 @@
       </c>
       <c r="K263" s="2"/>
       <c r="L263" s="4"/>
-      <c r="M263" s="2" t="s">
+      <c r="M263" s="3" t="s">
         <v>75</v>
       </c>
       <c r="N263" s="2" t="s">
@@ -17010,7 +17010,7 @@
       </c>
       <c r="K266" s="2"/>
       <c r="L266" s="4"/>
-      <c r="M266" s="2" t="s">
+      <c r="M266" s="3" t="s">
         <v>69</v>
       </c>
       <c r="N266" s="2" t="s">
@@ -17168,7 +17168,7 @@
       </c>
       <c r="K269" s="2"/>
       <c r="L269" s="4"/>
-      <c r="M269" s="2" t="s">
+      <c r="M269" s="3" t="s">
         <v>76</v>
       </c>
       <c r="N269" s="2" t="s">
@@ -17378,7 +17378,7 @@
         <v>617</v>
       </c>
       <c r="L273" s="4"/>
-      <c r="M273" s="2" t="s">
+      <c r="M273" s="3" t="s">
         <v>77</v>
       </c>
       <c r="N273" s="2" t="s">
@@ -17524,7 +17524,7 @@
         <v>618</v>
       </c>
       <c r="L276" s="4"/>
-      <c r="M276" s="2" t="s">
+      <c r="M276" s="3" t="s">
         <v>74</v>
       </c>
       <c r="N276" s="2" t="s">
@@ -17742,7 +17742,7 @@
       </c>
       <c r="K280" s="2"/>
       <c r="L280" s="4"/>
-      <c r="M280" s="2" t="s">
+      <c r="M280" s="3" t="s">
         <v>66</v>
       </c>
       <c r="N280" s="2" t="s">
@@ -17904,7 +17904,7 @@
       </c>
       <c r="K283" s="2"/>
       <c r="L283" s="4"/>
-      <c r="M283" s="2" t="s">
+      <c r="M283" s="3" t="s">
         <v>78</v>
       </c>
       <c r="N283" s="2" t="s">
@@ -18114,7 +18114,7 @@
         <v>621</v>
       </c>
       <c r="L287" s="4"/>
-      <c r="M287" s="2" t="s">
+      <c r="M287" s="3" t="s">
         <v>53</v>
       </c>
       <c r="N287" s="2" t="s">
@@ -18526,7 +18526,7 @@
         <v>621</v>
       </c>
       <c r="L295" s="4"/>
-      <c r="M295" s="2" t="s">
+      <c r="M295" s="3" t="s">
         <v>79</v>
       </c>
       <c r="N295" s="2" t="s">
@@ -18876,7 +18876,7 @@
         <v>622</v>
       </c>
       <c r="L302" s="4"/>
-      <c r="M302" s="2" t="s">
+      <c r="M302" s="3" t="s">
         <v>80</v>
       </c>
       <c r="N302" s="2" t="s">
@@ -19076,7 +19076,7 @@
         <v>623</v>
       </c>
       <c r="L306" s="4"/>
-      <c r="M306" s="2" t="s">
+      <c r="M306" s="3" t="s">
         <v>81</v>
       </c>
       <c r="N306" s="2" t="s">
@@ -19220,7 +19220,7 @@
       </c>
       <c r="K309" s="2"/>
       <c r="L309" s="4"/>
-      <c r="M309" s="2" t="s">
+      <c r="M309" s="3" t="s">
         <v>74</v>
       </c>
       <c r="N309" s="2" t="s">
@@ -19374,7 +19374,7 @@
       </c>
       <c r="K312" s="2"/>
       <c r="L312" s="4"/>
-      <c r="M312" s="2" t="s">
+      <c r="M312" s="3" t="s">
         <v>82</v>
       </c>
       <c r="N312" s="2" t="s">
@@ -19520,7 +19520,7 @@
       </c>
       <c r="K315" s="2"/>
       <c r="L315" s="4"/>
-      <c r="M315" s="2" t="s">
+      <c r="M315" s="3" t="s">
         <v>69</v>
       </c>
       <c r="N315" s="2" t="s">
@@ -19678,7 +19678,7 @@
       </c>
       <c r="K318" s="2"/>
       <c r="L318" s="4"/>
-      <c r="M318" s="2" t="s">
+      <c r="M318" s="3" t="s">
         <v>83</v>
       </c>
       <c r="N318" s="2" t="s">
@@ -20050,7 +20050,7 @@
         <v>616</v>
       </c>
       <c r="L325" s="4"/>
-      <c r="M325" s="2" t="s">
+      <c r="M325" s="3" t="s">
         <v>84</v>
       </c>
       <c r="N325" s="2" t="s">
@@ -20332,7 +20332,7 @@
       </c>
       <c r="K331" s="2"/>
       <c r="L331" s="4"/>
-      <c r="M331" s="2" t="s">
+      <c r="M331" s="3" t="s">
         <v>69</v>
       </c>
       <c r="N331" s="2" t="s">
@@ -20492,7 +20492,7 @@
         <v>625</v>
       </c>
       <c r="L334" s="4"/>
-      <c r="M334" s="2" t="s">
+      <c r="M334" s="3" t="s">
         <v>85</v>
       </c>
       <c r="N334" s="2" t="s">
@@ -20628,7 +20628,7 @@
       </c>
       <c r="K337" s="2"/>
       <c r="L337" s="4"/>
-      <c r="M337" s="2" t="s">
+      <c r="M337" s="3" t="s">
         <v>86</v>
       </c>
       <c r="N337" s="2" t="s">
@@ -21086,7 +21086,7 @@
       </c>
       <c r="K346" s="2"/>
       <c r="L346" s="4"/>
-      <c r="M346" s="2" t="s">
+      <c r="M346" s="3" t="s">
         <v>87</v>
       </c>
       <c r="N346" s="2" t="s">
@@ -21450,7 +21450,7 @@
         <v>605</v>
       </c>
       <c r="L353" s="4"/>
-      <c r="M353" s="2" t="s">
+      <c r="M353" s="3" t="s">
         <v>88</v>
       </c>
       <c r="N353" s="2" t="s">
@@ -21756,7 +21756,7 @@
       </c>
       <c r="K359" s="2"/>
       <c r="L359" s="4"/>
-      <c r="M359" s="2" t="s">
+      <c r="M359" s="3" t="s">
         <v>89</v>
       </c>
       <c r="N359" s="2" t="s">
@@ -21910,7 +21910,7 @@
       </c>
       <c r="K362" s="2"/>
       <c r="L362" s="4"/>
-      <c r="M362" s="2" t="s">
+      <c r="M362" s="3" t="s">
         <v>90</v>
       </c>
       <c r="N362" s="2" t="s">
@@ -22320,7 +22320,7 @@
       </c>
       <c r="K370" s="2"/>
       <c r="L370" s="4"/>
-      <c r="M370" s="2" t="s">
+      <c r="M370" s="3" t="s">
         <v>91</v>
       </c>
       <c r="N370" s="2"/>
